--- a/src/main/resources/static/excel/个人执业信息上传模板.xlsx
+++ b/src/main/resources/static/excel/个人执业信息上传模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13215"/>
+    <workbookView windowWidth="28215" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t>人员类型</t>
+  </si>
   <si>
     <t>医师执业类别代码</t>
   </si>
@@ -113,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -127,7 +130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -143,14 +147,19 @@
       <b/>
       <sz val="10"/>
       <name val="Microsoft Sans Serif"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -162,7 +171,114 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,121 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +499,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,38 +565,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,177 +599,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -751,11 +753,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -1106,109 +1110,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IS1"/>
+  <dimension ref="A1:IT1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:253">
+    <row r="1" s="1" customFormat="1" spans="1:254">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4"/>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
@@ -1416,7 +1422,7 @@
       <c r="IB1" s="4"/>
       <c r="IC1" s="4"/>
       <c r="ID1" s="4"/>
-      <c r="IE1" s="5"/>
+      <c r="IE1" s="4"/>
       <c r="IF1" s="5"/>
       <c r="IG1" s="5"/>
       <c r="IH1" s="5"/>
@@ -1431,6 +1437,7 @@
       <c r="IQ1" s="5"/>
       <c r="IR1" s="5"/>
       <c r="IS1" s="5"/>
+      <c r="IT1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
